--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-301_可用性要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-301_可用性要件定義(サンプル＆ガイド).xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1503,16 +1503,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="16"/>
   </si>
   <si>
@@ -1653,6 +1643,10 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4217,9 +4211,7 @@
       <c r="G31" s="63"/>
       <c r="H31" s="60"/>
       <c r="J31" s="64"/>
-      <c r="R31" s="65" t="s">
-        <v>112</v>
-      </c>
+      <c r="R31" s="65"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="60"/>
@@ -4259,20 +4251,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="72" t="s">
         <v>113</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>114</v>
       </c>
       <c r="O39" s="69"/>
       <c r="P39" s="69"/>
       <c r="Q39" s="70"/>
       <c r="R39" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S39" s="69"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -4747,7 +4743,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4793,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="78"/>
@@ -4836,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="83"/>
@@ -4879,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -4961,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
@@ -5005,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -5126,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
@@ -5327,7 +5323,7 @@
       <c r="E25" s="74"/>
       <c r="F25" s="75"/>
       <c r="G25" s="75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -7639,7 +7635,7 @@
     <row r="52" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="23"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-301_可用性要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-301_可用性要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A2571-D452-40A8-B26F-862878B91437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10575" windowHeight="5715"/>
+    <workbookView xWindow="9015" yWindow="4815" windowWidth="18105" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>記述内容説明</t>
     <rPh sb="0" eb="2">
@@ -1504,17 +1505,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>５．耐障害性</t>
@@ -1645,16 +1635,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2312,6 +2298,75 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,9 +2382,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2367,70 +2419,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2443,42 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2586,7 +2572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2684,52 +2676,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2750,7 +2696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2809,7 +2761,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2872,7 +2830,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2931,7 +2895,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="7" idx="1"/>
@@ -2984,7 +2954,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3043,7 +3019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3098,7 +3080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3157,7 +3145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3216,7 +3210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3269,7 +3269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3328,7 +3334,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3387,7 +3399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3467,7 +3485,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="カギ線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3521,7 +3545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3574,7 +3604,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3627,7 +3663,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3682,7 +3724,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3731,7 +3779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3831,7 +3885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3873,7 +3927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3906,9 +3960,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3941,6 +4012,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4116,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4124,42 +4212,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="60"/>
       <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
@@ -4168,12 +4256,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
@@ -4182,38 +4270,38 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="60"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="60"/>
       <c r="G29" s="63"/>
       <c r="H29" s="60"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="60"/>
       <c r="G30" s="63"/>
       <c r="H30" s="60"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="60"/>
       <c r="G31" s="63"/>
       <c r="H31" s="60"/>
       <c r="J31" s="64"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="60"/>
       <c r="H32" s="60"/>
       <c r="L32" s="66"/>
@@ -4225,1105 +4313,1091 @@
       <c r="R32" s="68"/>
       <c r="S32" s="69"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="66"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="69"/>
       <c r="R36" s="69"/>
       <c r="S36" s="69"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="70"/>
       <c r="P37" s="69"/>
       <c r="Q37" s="70"/>
       <c r="R37" s="69"/>
       <c r="S37" s="71"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="70"/>
       <c r="P38" s="69"/>
       <c r="Q38" s="70"/>
       <c r="R38" s="69"/>
       <c r="S38" s="70"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>113</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="72"/>
       <c r="O39" s="69"/>
       <c r="P39" s="69"/>
       <c r="Q39" s="70"/>
-      <c r="R39" s="70" t="s">
-        <v>114</v>
-      </c>
+      <c r="R39" s="70"/>
       <c r="S39" s="69"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12" customHeight="1">
+    <row r="1" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1">
+    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1">
+    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1">
+    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="12" customHeight="1">
+    <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="77" t="s">
+      <c r="C12" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="76" t="s">
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1">
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="98" t="s">
+      <c r="C13" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101" t="s">
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="100"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="104">
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="94"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76">
         <v>2</v>
       </c>
-      <c r="C14" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="94" t="s">
+      <c r="C14" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="94" t="s">
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="81"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="94" t="s">
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="77"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="94" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-    </row>
-    <row r="16" spans="1:34" ht="34.5" customHeight="1">
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+    </row>
+    <row r="16" spans="1:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94" t="s">
+      <c r="C16" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="94" t="s">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="81"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="104">
+      <c r="B17" s="76">
         <v>4</v>
       </c>
-      <c r="C17" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="94" t="s">
+      <c r="C17" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="94" t="s">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="106"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="94" t="s">
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="78"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="94" t="s">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-    </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="105"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="94" t="s">
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="77"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="94" t="s">
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="104">
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="76">
         <v>5</v>
       </c>
-      <c r="C20" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="94" t="s">
+      <c r="C20" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="94" t="s">
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-    </row>
-    <row r="21" spans="1:34" ht="24" customHeight="1">
-      <c r="B21" s="106"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="94" t="s">
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+    </row>
+    <row r="21" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="78"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="94" t="s">
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-    </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
-      <c r="B22" s="106"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="94" t="s">
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+    </row>
+    <row r="22" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="78"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="94" t="s">
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-    </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="106"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="94" t="s">
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+    </row>
+    <row r="23" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="78"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="94" t="s">
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-    </row>
-    <row r="24" spans="1:34" ht="24" customHeight="1">
-      <c r="B24" s="105"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="94" t="s">
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+    </row>
+    <row r="24" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="77"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="94" t="s">
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97"/>
-      <c r="AH24" s="97"/>
-    </row>
-    <row r="25" spans="1:34" ht="24" customHeight="1">
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+    </row>
+    <row r="25" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
       <c r="F25" s="75"/>
       <c r="G25" s="75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -5353,19 +5427,40 @@
       <c r="AG25" s="74"/>
       <c r="AH25" s="74"/>
     </row>
-    <row r="27" spans="1:34" ht="12" customHeight="1">
+    <row r="27" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="C20:F24"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="M15:AA15"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="M24:AA24"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M21:AA21"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="M23:AA23"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="AB23:AH23"/>
     <mergeCell ref="AB20:AH20"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:L17"/>
@@ -5382,32 +5477,11 @@
     <mergeCell ref="M14:AA14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="M24:AA24"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M21:AA21"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="M23:AA23"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="M15:AA15"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="C20:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5423,7 +5497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5431,7 +5505,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="34" width="5" style="6"/>
     <col min="35" max="35" width="5" style="6" customWidth="1"/>
@@ -5440,18 +5514,18 @@
     <col min="39" max="16384" width="5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="12" customHeight="1"/>
-    <row r="3" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>93</v>
@@ -5493,7 +5567,7 @@
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
@@ -5535,7 +5609,7 @@
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -5576,7 +5650,7 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5626,7 +5700,7 @@
       <c r="AM7" s="18"/>
       <c r="AN7" s="9"/>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -5675,7 +5749,7 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -5722,7 +5796,7 @@
       <c r="AL9" s="18"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -5769,7 +5843,7 @@
       <c r="AL10" s="18"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -5812,7 +5886,7 @@
       <c r="AL11" s="18"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -5855,7 +5929,7 @@
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="20"/>
@@ -5896,7 +5970,7 @@
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>94</v>
@@ -5939,7 +6013,7 @@
       <c r="AL14" s="18"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
         <v>95</v>
@@ -5982,7 +6056,7 @@
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -6026,7 +6100,7 @@
       <c r="AL16" s="18"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="20"/>
@@ -6071,7 +6145,7 @@
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6116,7 +6190,7 @@
       <c r="AL18" s="18"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
@@ -6124,18 +6198,18 @@
       <c r="E19" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="120" t="s">
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="124"/>
       <c r="N19" s="53" t="s">
         <v>85</v>
       </c>
@@ -6165,7 +6239,7 @@
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
     </row>
-    <row r="20" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
@@ -6173,40 +6247,40 @@
       <c r="E20" s="52">
         <v>1</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119" t="s">
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="91" t="s">
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="115"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="59"/>
@@ -6214,7 +6288,7 @@
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
     </row>
-    <row r="21" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="20"/>
@@ -6222,40 +6296,40 @@
       <c r="E21" s="52">
         <v>2</v>
       </c>
-      <c r="F21" s="116" t="s">
+      <c r="F21" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119" t="s">
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="126" t="s">
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="128"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="121"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="59"/>
@@ -6263,7 +6337,7 @@
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
     </row>
-    <row r="22" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
@@ -6271,40 +6345,40 @@
       <c r="E22" s="52">
         <v>3</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119" t="s">
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="94" t="s">
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="96"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="59"/>
@@ -6312,7 +6386,7 @@
       <c r="AL22" s="22"/>
       <c r="AM22" s="22"/>
     </row>
-    <row r="23" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="20"/>
@@ -6355,7 +6429,7 @@
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
     </row>
-    <row r="24" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6400,7 +6474,7 @@
       <c r="AL24" s="18"/>
       <c r="AM24" s="18"/>
     </row>
-    <row r="25" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="23"/>
@@ -6445,7 +6519,7 @@
       <c r="AL25" s="18"/>
       <c r="AM25" s="18"/>
     </row>
-    <row r="26" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
@@ -6488,7 +6562,7 @@
       <c r="AL26" s="18"/>
       <c r="AM26" s="18"/>
     </row>
-    <row r="27" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6533,7 +6607,7 @@
       <c r="AL27" s="18"/>
       <c r="AM27" s="18"/>
     </row>
-    <row r="28" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="31"/>
@@ -6578,7 +6652,7 @@
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
     </row>
-    <row r="29" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="18" t="s">
         <v>96</v>
@@ -6621,7 +6695,7 @@
       <c r="AL29" s="18"/>
       <c r="AM29" s="18"/>
     </row>
-    <row r="30" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18" t="s">
         <v>97</v>
@@ -6664,7 +6738,7 @@
       <c r="AL30" s="18"/>
       <c r="AM30" s="18"/>
     </row>
-    <row r="31" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
@@ -6709,7 +6783,7 @@
       <c r="AL31" s="18"/>
       <c r="AM31" s="18"/>
     </row>
-    <row r="32" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="20"/>
@@ -6717,40 +6791,40 @@
       <c r="E32" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="120" t="s">
+      <c r="F32" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="120" t="s">
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="120" t="s">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="122"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="124"/>
       <c r="AH32" s="56"/>
       <c r="AI32" s="57"/>
       <c r="AJ32" s="57"/>
@@ -6758,7 +6832,7 @@
       <c r="AL32" s="22"/>
       <c r="AM32" s="22"/>
     </row>
-    <row r="33" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="33" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="20"/>
@@ -6766,40 +6840,40 @@
       <c r="E33" s="52">
         <v>1</v>
       </c>
-      <c r="F33" s="116" t="s">
+      <c r="F33" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="119" t="s">
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="123" t="s">
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="125"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="118"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="59"/>
@@ -6807,7 +6881,7 @@
       <c r="AL33" s="22"/>
       <c r="AM33" s="22"/>
     </row>
-    <row r="34" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
@@ -6815,40 +6889,40 @@
       <c r="E34" s="52">
         <v>2</v>
       </c>
-      <c r="F34" s="116" t="s">
+      <c r="F34" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119" t="s">
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="129" t="s">
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="130"/>
-      <c r="AF34" s="130"/>
-      <c r="AG34" s="131"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="126"/>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="126"/>
+      <c r="AG34" s="127"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="59"/>
@@ -6856,7 +6930,7 @@
       <c r="AL34" s="22"/>
       <c r="AM34" s="22"/>
     </row>
-    <row r="35" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="20"/>
@@ -6864,40 +6938,40 @@
       <c r="E35" s="52">
         <v>3</v>
       </c>
-      <c r="F35" s="116" t="s">
+      <c r="F35" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="119" t="s">
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="123" t="s">
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="124"/>
-      <c r="AB35" s="124"/>
-      <c r="AC35" s="124"/>
-      <c r="AD35" s="124"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="124"/>
-      <c r="AG35" s="125"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="117"/>
+      <c r="AD35" s="117"/>
+      <c r="AE35" s="117"/>
+      <c r="AF35" s="117"/>
+      <c r="AG35" s="118"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="59"/>
       <c r="AJ35" s="59"/>
@@ -6905,7 +6979,7 @@
       <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
     </row>
-    <row r="36" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18" t="s">
         <v>98</v>
@@ -6948,7 +7022,7 @@
       <c r="AL36" s="22"/>
       <c r="AM36" s="22"/>
     </row>
-    <row r="37" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18" t="s">
         <v>99</v>
@@ -6990,7 +7064,7 @@
       <c r="AL37" s="22"/>
       <c r="AM37" s="22"/>
     </row>
-    <row r="38" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="38" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
@@ -7035,7 +7109,7 @@
       <c r="AL38" s="22"/>
       <c r="AM38" s="22"/>
     </row>
-    <row r="39" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="20"/>
@@ -7080,7 +7154,7 @@
       <c r="AL39" s="22"/>
       <c r="AM39" s="22"/>
     </row>
-    <row r="40" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="40" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="20"/>
@@ -7125,7 +7199,7 @@
       <c r="AL40" s="22"/>
       <c r="AM40" s="22"/>
     </row>
-    <row r="41" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="41" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="20"/>
@@ -7170,7 +7244,7 @@
       <c r="AL41" s="22"/>
       <c r="AM41" s="22"/>
     </row>
-    <row r="42" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="42" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18" t="s">
         <v>106</v>
@@ -7213,7 +7287,7 @@
       <c r="AL42" s="22"/>
       <c r="AM42" s="22"/>
     </row>
-    <row r="43" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="43" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19" t="s">
@@ -7258,7 +7332,7 @@
       <c r="AL43" s="22"/>
       <c r="AM43" s="22"/>
     </row>
-    <row r="44" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="44" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="20"/>
@@ -7307,7 +7381,7 @@
       <c r="AL44" s="22"/>
       <c r="AM44" s="22"/>
     </row>
-    <row r="45" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="45" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="20"/>
@@ -7356,7 +7430,7 @@
       <c r="AL45" s="22"/>
       <c r="AM45" s="22"/>
     </row>
-    <row r="46" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="46" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="20"/>
@@ -7405,7 +7479,7 @@
       <c r="AL46" s="22"/>
       <c r="AM46" s="22"/>
     </row>
-    <row r="47" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="47" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="20"/>
@@ -7454,7 +7528,7 @@
       <c r="AL47" s="22"/>
       <c r="AM47" s="22"/>
     </row>
-    <row r="48" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="48" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18" t="s">
         <v>107</v>
@@ -7497,7 +7571,7 @@
       <c r="AL48" s="22"/>
       <c r="AM48" s="22"/>
     </row>
-    <row r="49" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19" t="s">
@@ -7542,7 +7616,7 @@
       <c r="AL49" s="22"/>
       <c r="AM49" s="22"/>
     </row>
-    <row r="50" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="20"/>
@@ -7587,7 +7661,7 @@
       <c r="AL50" s="22"/>
       <c r="AM50" s="22"/>
     </row>
-    <row r="51" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="51" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="20"/>
@@ -7632,10 +7706,10 @@
       <c r="AL51" s="22"/>
       <c r="AM51" s="22"/>
     </row>
-    <row r="52" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="52" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="23"/>
@@ -7675,7 +7749,7 @@
       <c r="AL52" s="22"/>
       <c r="AM52" s="22"/>
     </row>
-    <row r="53" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="53" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="20"/>
@@ -7715,7 +7789,7 @@
       <c r="AL53" s="22"/>
       <c r="AM53" s="22"/>
     </row>
-    <row r="54" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="54" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="20"/>
@@ -7755,7 +7829,7 @@
       <c r="AL54" s="22"/>
       <c r="AM54" s="22"/>
     </row>
-    <row r="55" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="55" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="20"/>
@@ -7795,7 +7869,7 @@
       <c r="AL55" s="22"/>
       <c r="AM55" s="22"/>
     </row>
-    <row r="56" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="56" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="32"/>
@@ -7836,7 +7910,7 @@
       <c r="AL56" s="22"/>
       <c r="AM56" s="22"/>
     </row>
-    <row r="57" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="57" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="32"/>
@@ -7877,7 +7951,7 @@
       <c r="AL57" s="22"/>
       <c r="AM57" s="22"/>
     </row>
-    <row r="58" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="58" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="32"/>
@@ -7918,7 +7992,7 @@
       <c r="AL58" s="22"/>
       <c r="AM58" s="22"/>
     </row>
-    <row r="59" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="59" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="32"/>
@@ -7959,7 +8033,7 @@
       <c r="AL59" s="22"/>
       <c r="AM59" s="22"/>
     </row>
-    <row r="60" spans="1:39" s="5" customFormat="1" ht="13.5" customHeight="1">
+    <row r="60" spans="1:39" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="17"/>
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
@@ -7998,7 +8072,7 @@
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
     </row>
-    <row r="61" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="16"/>
@@ -8037,7 +8111,7 @@
       <c r="AL61" s="16"/>
       <c r="AM61" s="16"/>
     </row>
-    <row r="62" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="12"/>
@@ -8078,7 +8152,7 @@
       <c r="AL62" s="14"/>
       <c r="AM62" s="14"/>
     </row>
-    <row r="63" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="63" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="15"/>
@@ -8119,7 +8193,7 @@
       <c r="AL63" s="16"/>
       <c r="AM63" s="16"/>
     </row>
-    <row r="64" spans="1:39" ht="12" customHeight="1">
+    <row r="64" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -8136,7 +8210,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="3:17" ht="12" customHeight="1">
+    <row r="65" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="11"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -8153,7 +8227,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="3:17" ht="12" customHeight="1">
+    <row r="66" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -8170,7 +8244,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="3:17" ht="12" customHeight="1">
+    <row r="67" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -8187,7 +8261,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="3:17" ht="12" customHeight="1">
+    <row r="68" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -8206,13 +8280,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N35:AG35"/>
-    <mergeCell ref="N20:AG20"/>
-    <mergeCell ref="N21:AG21"/>
-    <mergeCell ref="N22:AG22"/>
-    <mergeCell ref="N32:AG32"/>
-    <mergeCell ref="N33:AG33"/>
-    <mergeCell ref="N34:AG34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="J35:M35"/>
     <mergeCell ref="F19:I19"/>
@@ -8229,6 +8296,13 @@
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N35:AG35"/>
+    <mergeCell ref="N20:AG20"/>
+    <mergeCell ref="N21:AG21"/>
+    <mergeCell ref="N22:AG22"/>
+    <mergeCell ref="N32:AG32"/>
+    <mergeCell ref="N33:AG33"/>
+    <mergeCell ref="N34:AG34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
